--- a/udemy_manual_testing.xlsx
+++ b/udemy_manual_testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahin\Desktop\manual_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A4DCBB-56F0-4968-98AF-681C9EFFD766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C208CA25-7DBF-4F4C-AC2E-305DB8B5137C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4B2AA159-6542-4B17-A13F-08406BB4E1E5}"/>
   </bookViews>
@@ -670,6 +670,142 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,146 +813,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,829 +1155,841 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="36">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" thickBot="1">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="I3" s="36">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="44"/>
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="H5" s="22" t="s">
+      <c r="B5" s="44"/>
+      <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
+      <c r="I5" s="36">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57" thickBot="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="69" thickBot="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="80.25" thickBot="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.75" thickBot="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="34">
         <v>8598</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="80.25" thickBot="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="69" thickBot="1">
-      <c r="A13" s="33" t="s">
+      <c r="I12" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.75" thickBot="1">
+      <c r="A13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="69" thickBot="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.75" thickBot="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="57.75" thickBot="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="36">
         <v>85980505</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="57.75" thickBot="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="69" thickBot="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="69" thickBot="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="57.75" thickBot="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="57.75" thickBot="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="57.75" thickBot="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="69" thickBot="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="57.75" thickBot="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="57.75" thickBot="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="57.75" thickBot="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="57.75" thickBot="1">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="69" thickBot="1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="69" thickBot="1">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="69" thickBot="1">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="69" thickBot="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="80.25" thickBot="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="69" thickBot="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="H33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="31" t="s">
         <v>39</v>
       </c>
     </row>
